--- a/database_exel.xlsx
+++ b/database_exel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,50 +473,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Денис</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>БГАУ</t>
+          <t>ва</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>06/09/2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Школьные уроки</t>
+          <t>Питание, продукты</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.538</v>
+        <v>851.76</v>
       </c>
       <c r="F2" t="n">
-        <v>74.47439999999999</v>
+        <v>65.4145</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>все было приколько)</t>
+          <t>все круто</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Лера</t>
+          <t>Ден</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>УГНТУ</t>
+          <t>БГМУ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>06/09/2022</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,48 +525,14 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.108</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.8248</v>
+        <v>58.604</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ОФИГЕННО!!! Вадим самая лучшая булочка с корицей!!!!! ЛЮБЛЮ ЕГО ВСЕМ СЕРДЦЕМ!!!! САМЫЙ ЛУЧШИЙ ЧАТ БОТ!!!! ПЛАТИТЕ ЕМУ МИЛЛИОН
-P.S. Возьмите Леру ему в секретари, а в Казань готова даже в багаже и в багажнике</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Вадим</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Мгту</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>05/09/2022</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Экскурсия на предприятие</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>12.366</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1241.24</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Super</t>
+          <t>класс</t>
         </is>
       </c>
     </row>

--- a/database_exel.xlsx
+++ b/database_exel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,61 +478,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ва</t>
+          <t>СОШ №6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06/09/2022</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Питание, продукты</t>
+          <t>Покупка вещей</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>851.76</v>
+        <v>1256.832</v>
       </c>
       <c r="F2" t="n">
-        <v>65.4145</v>
+        <v>96</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>все круто</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ден</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>БГМУ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>06/09/2022</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Поездка в школу</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>58.604</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>класс</t>
+          <t>сраероаеоаеовк</t>
         </is>
       </c>
     </row>

--- a/database_exel.xlsx
+++ b/database_exel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,75 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Район</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Место учебы</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Увлечения</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Любимый предмет</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Интересуется экологией?</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Слышал об углеродном следе?</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Вопрос про лишний газ</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Что относится к углеродному следу?</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Понял что такое углеродный след?</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Вариант</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Ответ на первый вопрос</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Ответ на второй вопрос</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Отзыв</t>
         </is>
@@ -473,35 +513,2923 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Вадим</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>СОШ №6</t>
+          <t>Эмиль</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>Бавлинский район</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Увлекаюсь баскетболом. Люблю гулять с друзьями.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Физ ра</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>Покупка вещей</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1256.832</v>
-      </c>
-      <c r="F2" t="n">
-        <v>96</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>сраероаеоаеовк</t>
-        </is>
-      </c>
+      <c r="M2" t="n">
+        <v>2698.416</v>
+      </c>
+      <c r="N2" t="n">
+        <v>135</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Было круто</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Мирца</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>я рисую, озвучиваю комиксы, читаю рассказы и мангу</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Литературу</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Ванные процедуры</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.4124</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Зачем мне шланг</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Артем</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Плавание, геометрия, физика, баскетбол</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Питание, продукты</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Я увлекаюсь спортом, баскетболом</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Поездка в школу</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>59.508</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>скейт,танцы</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>физра</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Увлечение, хобби</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>5.3248e-06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Гитара</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Техналогия</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Увлечение, хобби</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0.004992</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Илзира</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>художка</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>физра</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Поездка в школу</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>178.524</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>руслана</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>баскетбол, волейбол</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>физ-ра</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Школьные уроки</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0.05125</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Адиля</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Я хожу в художку</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>физра</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Покупка вещей</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>3560.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>90</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>мне очень понравилось</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ралина</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>я занимаюсь лёгкой атлетикой 3 год</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>физра</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Питание, продукты</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>50.96</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.3589</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>крутые подарки</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Самира</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Я занимаюсь теннисом</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Физра</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Ванные процедуры</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="N12" t="n">
+        <v>124.124</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Очень круто</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Самира</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Я занимаюсь легкой атлетикой</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N2O</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Здоровый сон</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>10.088</v>
+      </c>
+      <c r="N13" t="n">
+        <v>30.1665</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Это было очень круто мне понравилось</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Дина</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Лёгкая атлетика, гитара</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Экскурсия на предприятие</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39.767</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Самые лучшие</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Арина</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>я люблю рисовать</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>английский</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Не особо</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Поход, путешествие</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>188.602</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.62112</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>класссс</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>рисовать</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>география</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Экскурсия на предприятие</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>вы очень классно это придумали, спасибо</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ралина</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>рисование</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>география</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Уборка по дому</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1.35468</v>
+      </c>
+      <c r="N17" t="n">
+        <v>41.405</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>очень хорошие, классно продумали</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Катя</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>я рисую, читаю книги и изучаю иностранные языки</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Поход, путешествие</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>228.393</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.60912</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>дина</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>я люблю спать и играть в геншин импакт</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>никакой</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Здоровый сон</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="N19" t="n">
+        <v>71.825</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>хорошее мероприятие, мне понравилось</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Амир</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Баскетбол</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Физкультура</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Школьные уроки</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0.34475</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Эльвина</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Читаю книги, играю на фортепиано</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Поездка в школу</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>119.016</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.096</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Я очень рада то что я узнала, применила советы и узнала много чего нового</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Данил</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Не особо</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Уборка по дому</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>3.51576</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Круто</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Читаю, рисую, изучаю химию</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Химия, геометрия</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Увлечение, хобби</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>4.16e-08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Мне понравилось</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Тагир</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Алгбера</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Покупка вещей</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>574.4160000000001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>584</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Топчик</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Амир</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>СОШ №7</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Сорт настольный теннис</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Спорт настольный теннис</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Школьные уроки</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0.74075</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Круто</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Ванные процедуры</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>74.47439999999999</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Вилена</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Гуляю , катаюсь на коньках , спать</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Русский</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Уборка по дому</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>7.83792</v>
+      </c>
+      <c r="N27" t="n">
+        <v>82.81</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Классный подарок</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Айсылу</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Я люблю гулять по парку и танцевать.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>русский язык</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Поездка в школу</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>59.508</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Мне  все понравилось,я узнала много нового</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Назгуль</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Изучаю английский,читаю зарубежную классику</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Поход, путешествие</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>244.165</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.64512</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Чемоданчик классный</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Карина</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Я люблю играть в волейбол и гулять на улице</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Физкультурс</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Увлечение, хобби</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001248</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.448</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Круто, интересно, весело</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ярик</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Катаюсь</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Увлечение, хобби</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Алмаз</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Танки</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Некакой</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Школьные уроки</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0.05125</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ислам</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Футбол</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Поездка в школу</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>178.524</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Алина</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Я люблю гулять. Кататься на коньках, читать литературу.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Питание, продукты</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.39345</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Мне очень понравилось обучающее исследования</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Валейбол,</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Физра</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Питание, продукты</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.6469</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Я люблю читать и танцевать)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Экскурсия на предприятие</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Мне очень понравилось !</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Данил</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Люблю играть в карты</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Физическая культура</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Покупка вещей</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Арина</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Я люблю танцевать, рисовать,петь</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Здоровый сон</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8.619</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Мне было очень интересно и увлекательно.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Гульназ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Я занимаюсь бисером, гуляю в парке</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Литературу</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Ванные процедуры</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="N39" t="n">
+        <v>62.062</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Мне оно очень понравилось я узнала много информации</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Амир</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Компьютерные игры</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Технология</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Поход, путешествие</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>219.086</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.64512</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Отличное мероприятие, мне понравилось</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Айнур</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Я занимаюсь борьбой</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Физкультура</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>покупка булочек с корицей местного производства</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Экскурсия на предприятие</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Алмаз.С</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Бавлинский район</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>СОШ №3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Футбол</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Физра</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>H2S</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>производство булочек с корицей</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Не особо</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Здоровый сон</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
